--- a/biology/Biologie cellulaire et moléculaire/Cellule_souche_animale/Cellule_souche_animale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_souche_animale/Cellule_souche_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cellule souche animale est une cellule animale caractérisée par sa capacité à engendrer des cellules spécialisées en se différenciant et par sa capacité à se multiplier à l’identique (auto-renouvellement).
 Les cellules souches animales et en particulier les cellules souches humaines font l’objet de beaucoup de recherches, notamment en médecine en vue de régénérer des tissus voire de créer de toutes pièces des tissus et organes. L'utilisation des cellules souches en médecine pose des problèmes d’éthique.
@@ -512,7 +524,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les organismes métazoaires résultent d’une embryogenèse, c’est-à-dire qu’ils sont formés à partir d’une cellule unique (le zygote) qui, en se développant, donne par la suite un individu complet. Certaines cellules d’un organisme résultent directement de cette embryogenèse, mais beaucoup d’autres sont renouvelées en permanence : Les cellules souches descendent de ces populations de cellules embryonnaires et jouent un rôle de « réservoir » cellulaire en remplaçant les cellules perdues quotidiennement ou lors d’accidents.
 On distingue plusieurs types de cellules souches selon leurs capacités de différenciation :
@@ -549,7 +563,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains tissus ont un fort renouvellement cellulaire et un nombre de cellules souches très important. Chez les mammifères, elles régénèrent les cellules suivantes :
 les cellules épidermiques qui assurent la protection de l’extérieur, et qui se desquament régulièrement ;
@@ -559,7 +575,7 @@
 les cellules souches neurales.
 Ces cellules ne peuvent être discernées expérimentalement dans une population cellulaire, ni avec des marqueurs, ni morphologiquement, puisqu’elles sont indifférenciées et ne présentent donc aucun marqueur de différenciation. Elles sont en effet définies par leur fonction et non leur forme. Leur mise en évidence ne peut donc se faire que lors d’expérimentation.
 Les cellules souches sont particulièrement sollicitées lors d’une lésion ou d’un changement d’environnement brusque.
-Depuis 2007, des cellules normales (fibroblastes) peuvent être transformées en cellules souches par génie génétique en y incorporant plusieurs gènes. La manipulation reste cependant peu aisée avec un fort taux d'échecs[1].
+Depuis 2007, des cellules normales (fibroblastes) peuvent être transformées en cellules souches par génie génétique en y incorporant plusieurs gènes. La manipulation reste cependant peu aisée avec un fort taux d'échecs.
 </t>
         </is>
       </c>
